--- a/TimingExcel.xlsx
+++ b/TimingExcel.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Number of Records</t>
   </si>
@@ -35,18 +38,30 @@
   <si>
     <t>Cache</t>
   </si>
+  <si>
+    <t>Non-Cache + Parallel Linq</t>
+  </si>
+  <si>
+    <t>Cache + Parallel Linq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -133,10 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,8 +168,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -447,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:G12"/>
+  <dimension ref="D2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,12 +508,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
@@ -529,12 +575,12 @@
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
@@ -595,12 +641,149 @@
         <v>1.5810903999999999</v>
       </c>
     </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>168892</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.74307429999999997</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.38003799999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <f>SUM(E18,-F18)</f>
+        <v>0.36303629999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>506676</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.9961996</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.5461545999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <f>SUM(E19,-F19)</f>
+        <v>0.45004500000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>1013352</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.5293528999999899</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.3632363000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <f>SUM(E20,-F20)</f>
+        <v>1.1661165999999898</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>168892</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.18001799999999901</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f>SUM(E24,-F24)</f>
+        <v>0.18001799999999901</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>506676</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.54305429999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f>SUM(E25,-F25)</f>
+        <v>0.54305429999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>1013352</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.0471047</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f>SUM(E26,-F26)</f>
+        <v>1.0471047</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
